--- a/va_facility_data_2025-02-20/New Port Richey VA Clinic - Facility Data.xlsx"; filename*=UTF-8''New%20Port%20Richey%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/New Port Richey VA Clinic - Facility Data.xlsx"; filename*=UTF-8''New%20Port%20Richey%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re2a9dcb2e9c64af69ca1c93b707717e6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8e0cc04cdb8049e684cc4b2fd5bc02d9"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3168cb018685494aa1f22acd0d2eabe6"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R73560d41fe9c4f39ac3a2f01329d85f3"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R41ecbcf5150142a0973870799f6ff85c"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rde0df5188026452fa0aeba3a55c6952d"/>
   </x:sheets>
 </x:workbook>
 </file>
